--- a/output/leuk_planning.xlsx
+++ b/output/leuk_planning.xlsx
@@ -1,488 +1,438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\testingPackage3\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF4F56B-DAEF-4771-9910-2E20275237DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MetaData" sheetId="1" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" r:id="rId2"/>
-    <sheet name="ExtraPairs_Bal-Unbal" sheetId="3" r:id="rId3"/>
-    <sheet name="DoppelgangerSamplesA" sheetId="4" r:id="rId4"/>
-    <sheet name="DoppelgangerSamplesG" sheetId="5" r:id="rId5"/>
-    <sheet name="ExperimentPlan" sheetId="6" r:id="rId6"/>
+    <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ExtraPairs_Bal-Unbal" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DoppelgangerSamplesA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DoppelgangerSamplesG" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="150">
-  <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>ALL_1_A</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>ALL_2_A</t>
-  </si>
-  <si>
-    <t>ALL_3_A</t>
-  </si>
-  <si>
-    <t>ALL_4_A</t>
-  </si>
-  <si>
-    <t>ALL_5_A</t>
-  </si>
-  <si>
-    <t>ALL_6_A</t>
-  </si>
-  <si>
-    <t>ALL_7_A</t>
-  </si>
-  <si>
-    <t>ALL_8_A</t>
-  </si>
-  <si>
-    <t>ALL_9_A</t>
-  </si>
-  <si>
-    <t>ALL_10_A</t>
-  </si>
-  <si>
-    <t>ALL_11_A</t>
-  </si>
-  <si>
-    <t>ALL_12_A</t>
-  </si>
-  <si>
-    <t>ALL_13_A</t>
-  </si>
-  <si>
-    <t>ALL_14_A</t>
-  </si>
-  <si>
-    <t>ALL_15_A</t>
-  </si>
-  <si>
-    <t>ALL_16_A</t>
-  </si>
-  <si>
-    <t>ALL_17_A</t>
-  </si>
-  <si>
-    <t>ALL_18_A</t>
-  </si>
-  <si>
-    <t>ALL_19_A</t>
-  </si>
-  <si>
-    <t>ALL_20_A</t>
-  </si>
-  <si>
-    <t>ALL_21_A</t>
-  </si>
-  <si>
-    <t>ALL_22_A</t>
-  </si>
-  <si>
-    <t>ALL_23_A</t>
-  </si>
-  <si>
-    <t>ALL_24_A</t>
-  </si>
-  <si>
-    <t>AML_1_A</t>
-  </si>
-  <si>
-    <t>AML</t>
-  </si>
-  <si>
-    <t>AML_2_A</t>
-  </si>
-  <si>
-    <t>AML_3_A</t>
-  </si>
-  <si>
-    <t>AML_4_A</t>
-  </si>
-  <si>
-    <t>AML_5_A</t>
-  </si>
-  <si>
-    <t>AML_6_A</t>
-  </si>
-  <si>
-    <t>AML_7_A</t>
-  </si>
-  <si>
-    <t>AML_8_A</t>
-  </si>
-  <si>
-    <t>AML_9_A</t>
-  </si>
-  <si>
-    <t>AML_10_A</t>
-  </si>
-  <si>
-    <t>AML_11_A</t>
-  </si>
-  <si>
-    <t>AML_12_A</t>
-  </si>
-  <si>
-    <t>AML_13_A</t>
-  </si>
-  <si>
-    <t>AML_14_A</t>
-  </si>
-  <si>
-    <t>AML_15_A</t>
-  </si>
-  <si>
-    <t>AML_16_A</t>
-  </si>
-  <si>
-    <t>AML_17_A</t>
-  </si>
-  <si>
-    <t>AML_18_A</t>
-  </si>
-  <si>
-    <t>AML_19_A</t>
-  </si>
-  <si>
-    <t>AML_20_A</t>
-  </si>
-  <si>
-    <t>AML_21_A</t>
-  </si>
-  <si>
-    <t>AML_22_A</t>
-  </si>
-  <si>
-    <t>AML_23_A</t>
-  </si>
-  <si>
-    <t>AML_24_A</t>
-  </si>
-  <si>
-    <t>ALL_1_G</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>ALL_2_G</t>
-  </si>
-  <si>
-    <t>ALL_3_G</t>
-  </si>
-  <si>
-    <t>ALL_4_G</t>
-  </si>
-  <si>
-    <t>ALL_5_G</t>
-  </si>
-  <si>
-    <t>ALL_6_G</t>
-  </si>
-  <si>
-    <t>ALL_7_G</t>
-  </si>
-  <si>
-    <t>ALL_8_G</t>
-  </si>
-  <si>
-    <t>ALL_9_G</t>
-  </si>
-  <si>
-    <t>ALL_10_G</t>
-  </si>
-  <si>
-    <t>ALL_11_G</t>
-  </si>
-  <si>
-    <t>ALL_12_G</t>
-  </si>
-  <si>
-    <t>ALL_13_G</t>
-  </si>
-  <si>
-    <t>ALL_14_G</t>
-  </si>
-  <si>
-    <t>ALL_15_G</t>
-  </si>
-  <si>
-    <t>ALL_16_G</t>
-  </si>
-  <si>
-    <t>ALL_17_G</t>
-  </si>
-  <si>
-    <t>ALL_18_G</t>
-  </si>
-  <si>
-    <t>ALL_19_G</t>
-  </si>
-  <si>
-    <t>ALL_20_G</t>
-  </si>
-  <si>
-    <t>ALL_21_G</t>
-  </si>
-  <si>
-    <t>ALL_22_G</t>
-  </si>
-  <si>
-    <t>ALL_23_G</t>
-  </si>
-  <si>
-    <t>ALL_24_G</t>
-  </si>
-  <si>
-    <t>ALL_25_G</t>
-  </si>
-  <si>
-    <t>ALL_26_G</t>
-  </si>
-  <si>
-    <t>ALL_27_G</t>
-  </si>
-  <si>
-    <t>ALL_28_G</t>
-  </si>
-  <si>
-    <t>ALL_29_G</t>
-  </si>
-  <si>
-    <t>ALL_30_G</t>
-  </si>
-  <si>
-    <t>ALL_31_G</t>
-  </si>
-  <si>
-    <t>ALL_32_G</t>
-  </si>
-  <si>
-    <t>ALL_33_G</t>
-  </si>
-  <si>
-    <t>ALL_34_G</t>
-  </si>
-  <si>
-    <t>ALL_35_G</t>
-  </si>
-  <si>
-    <t>ALL_36_G</t>
-  </si>
-  <si>
-    <t>ALL_37_G</t>
-  </si>
-  <si>
-    <t>ALL_38_G</t>
-  </si>
-  <si>
-    <t>ALL_39_G</t>
-  </si>
-  <si>
-    <t>ALL_40_G</t>
-  </si>
-  <si>
-    <t>ALL_41_G</t>
-  </si>
-  <si>
-    <t>ALL_42_G</t>
-  </si>
-  <si>
-    <t>ALL_43_G</t>
-  </si>
-  <si>
-    <t>ALL_44_G</t>
-  </si>
-  <si>
-    <t>ALL_45_G</t>
-  </si>
-  <si>
-    <t>ALL_46_G</t>
-  </si>
-  <si>
-    <t>ALL_47_G</t>
-  </si>
-  <si>
-    <t>AML_1_G</t>
-  </si>
-  <si>
-    <t>AML_2_G</t>
-  </si>
-  <si>
-    <t>AML_3_G</t>
-  </si>
-  <si>
-    <t>AML_4_G</t>
-  </si>
-  <si>
-    <t>AML_5_G</t>
-  </si>
-  <si>
-    <t>AML_6_G</t>
-  </si>
-  <si>
-    <t>AML_7_G</t>
-  </si>
-  <si>
-    <t>AML_8_G</t>
-  </si>
-  <si>
-    <t>AML_9_G</t>
-  </si>
-  <si>
-    <t>AML_10_G</t>
-  </si>
-  <si>
-    <t>AML_11_G</t>
-  </si>
-  <si>
-    <t>AML_12_G</t>
-  </si>
-  <si>
-    <t>AML_13_G</t>
-  </si>
-  <si>
-    <t>AML_14_G</t>
-  </si>
-  <si>
-    <t>AML_15_G</t>
-  </si>
-  <si>
-    <t>AML_16_G</t>
-  </si>
-  <si>
-    <t>AML_17_G</t>
-  </si>
-  <si>
-    <t>AML_18_G</t>
-  </si>
-  <si>
-    <t>AML_19_G</t>
-  </si>
-  <si>
-    <t>AML_20_G</t>
-  </si>
-  <si>
-    <t>AML_21_G</t>
-  </si>
-  <si>
-    <t>AML_22_G</t>
-  </si>
-  <si>
-    <t>AML_23_G</t>
-  </si>
-  <si>
-    <t>AML_24_G</t>
-  </si>
-  <si>
-    <t>AML_25_G</t>
-  </si>
-  <si>
-    <t>Sample1</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>PPCC</t>
-  </si>
-  <si>
-    <t>ClassPatient</t>
-  </si>
-  <si>
-    <t>DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t>Same Class
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t xml:space="preserve">Patient_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_3_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_4_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_5_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_6_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_7_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_8_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_9_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_10_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_11_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_12_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_13_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_14_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_15_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_16_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_17_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_18_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_19_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_20_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_21_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_22_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_23_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_24_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_3_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_4_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_5_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_6_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_7_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_8_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_9_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_10_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_11_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_12_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_13_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_14_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_15_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_16_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_17_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_18_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_19_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_20_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_21_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_22_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_23_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_24_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_1_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_2_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_3_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_4_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_5_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_6_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_7_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_8_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_9_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_10_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_11_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_12_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_13_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_14_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_15_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_16_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_17_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_18_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_19_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_20_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_21_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_22_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_23_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_24_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_25_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_26_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_27_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_28_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_29_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_30_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_31_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_32_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_33_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_34_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_35_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_36_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_37_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_38_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_39_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_40_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_41_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_42_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_43_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_44_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_45_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_46_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_47_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_1_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_2_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_3_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_4_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_5_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_6_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_7_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_8_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_9_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_10_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_11_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_12_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_13_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_14_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_15_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_16_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_17_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_18_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_19_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_20_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_21_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_22_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_23_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_24_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AML_25_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelgangerLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Class
  Different Patient</t>
   </si>
   <si>
-    <t>Doppelganger</t>
-  </si>
-  <si>
-    <t>Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Non-Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Doppel_0.train</t>
-  </si>
-  <si>
-    <t>Doppel_0.valid</t>
-  </si>
-  <si>
-    <t>Doppel_2.train</t>
-  </si>
-  <si>
-    <t>Doppel_2.valid</t>
-  </si>
-  <si>
-    <t>Doppel_4.train</t>
-  </si>
-  <si>
-    <t>Doppel_4.valid</t>
-  </si>
-  <si>
-    <t>Doppel_6.train</t>
-  </si>
-  <si>
-    <t>Doppel_6.valid</t>
-  </si>
-  <si>
-    <t>Doppel_8.train</t>
-  </si>
-  <si>
-    <t>Doppel_8.valid</t>
-  </si>
-  <si>
-    <t>Doppel_10.train</t>
-  </si>
-  <si>
-    <t>Doppel_10.valid</t>
-  </si>
-  <si>
-    <t>Pos_Con.train</t>
-  </si>
-  <si>
-    <t>Pos_Con.valid</t>
+    <t xml:space="preserve">Doppelganger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Doppelganger Samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -490,33 +440,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -531,26 +461,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -832,16 +749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -863,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -874,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -885,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -896,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -907,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -918,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -929,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -940,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -951,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -962,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -973,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -984,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -995,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1006,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1028,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1105,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1127,7 +1042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1149,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1193,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1204,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1248,7 +1163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1292,7 +1207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1303,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1314,7 +1229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1325,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1336,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1347,7 +1262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1369,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1391,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1402,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1413,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1424,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1435,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1457,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1479,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1490,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1501,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1512,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1534,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1545,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1556,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1567,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1578,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1600,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1611,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1622,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1633,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1644,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1655,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1666,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -1677,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1688,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -1699,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1710,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1721,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1732,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1743,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1754,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1765,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -1776,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -1787,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -1798,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1809,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -1820,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1831,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -1842,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -1853,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -1864,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -1875,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -1886,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -1897,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1908,7 +1823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -1919,7 +1834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -1930,7 +1845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -1941,7 +1856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -1952,7 +1867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -1963,7 +1878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -1974,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -1985,7 +1900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -1996,7 +1911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -2007,7 +1922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -2018,7 +1933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="108">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -2029,7 +1944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="109">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -2040,7 +1955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="110">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2051,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="111">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2062,7 +1977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="112">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -2073,7 +1988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="113">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -2084,7 +1999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="114">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2095,7 +2010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="115">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -2106,7 +2021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="116">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2117,7 +2032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="117">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -2128,7 +2043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="118">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -2139,7 +2054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="119">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -2150,7 +2065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="120">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -2161,7 +2076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="121">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -2174,19 +2089,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2203,14 +2118,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.9422022681958</v>
       </c>
       <c r="D2" t="s">
@@ -2220,15 +2135,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3">
-        <v>0.92424817174664897</v>
+      <c r="C3" t="n">
+        <v>0.924248171746649</v>
       </c>
       <c r="D3" t="s">
         <v>132</v>
@@ -2237,15 +2152,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
-        <v>0.93680103423621397</v>
+      <c r="C4" t="n">
+        <v>0.936801034236214</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -2254,15 +2169,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="C5">
-        <v>0.92586645775868903</v>
+      <c r="C5" t="n">
+        <v>0.925866457758689</v>
       </c>
       <c r="D5" t="s">
         <v>132</v>
@@ -2271,14 +2186,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.924710986785796</v>
       </c>
       <c r="D6" t="s">
@@ -2288,15 +2203,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="C7">
-        <v>0.93412805505264696</v>
+      <c r="C7" t="n">
+        <v>0.934128055052647</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -2305,15 +2220,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8">
-        <v>0.92795087762443096</v>
+      <c r="C8" t="n">
+        <v>0.927950877624431</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>
@@ -2322,15 +2237,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
-        <v>0.92771362333830998</v>
+      <c r="C9" t="n">
+        <v>0.92771362333831</v>
       </c>
       <c r="D9" t="s">
         <v>132</v>
@@ -2339,15 +2254,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="C10">
-        <v>0.92815733223923902</v>
+      <c r="C10" t="n">
+        <v>0.928157332239239</v>
       </c>
       <c r="D10" t="s">
         <v>132</v>
@@ -2356,14 +2271,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.943329547453442</v>
       </c>
       <c r="D11" t="s">
@@ -2373,15 +2288,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12">
-        <v>0.92696613664601601</v>
+      <c r="C12" t="n">
+        <v>0.926966136646016</v>
       </c>
       <c r="D12" t="s">
         <v>132</v>
@@ -2390,15 +2305,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13">
-        <v>0.93006282198137902</v>
+      <c r="C13" t="n">
+        <v>0.930062821981379</v>
       </c>
       <c r="D13" t="s">
         <v>132</v>
@@ -2407,15 +2322,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C14">
-        <v>0.93171701096442805</v>
+      <c r="C14" t="n">
+        <v>0.931717010964428</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -2424,15 +2339,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C15">
-        <v>0.92754560132744801</v>
+      <c r="C15" t="n">
+        <v>0.927545601327448</v>
       </c>
       <c r="D15" t="s">
         <v>132</v>
@@ -2441,14 +2356,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>102</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.946353264053303</v>
       </c>
       <c r="D16" t="s">
@@ -2458,15 +2373,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17">
-        <v>0.92958923241862401</v>
+      <c r="C17" t="n">
+        <v>0.929589232418624</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -2475,15 +2390,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C18">
-        <v>0.92660606819347302</v>
+      <c r="C18" t="n">
+        <v>0.926606068193473</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -2492,15 +2407,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="C19">
-        <v>0.92656035498954503</v>
+      <c r="C19" t="n">
+        <v>0.926560354989545</v>
       </c>
       <c r="D19" t="s">
         <v>132</v>
@@ -2509,15 +2424,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="C20">
-        <v>0.92820873444253205</v>
+      <c r="C20" t="n">
+        <v>0.928208734442532</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
@@ -2526,15 +2441,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C21">
-        <v>0.96910164886505201</v>
+      <c r="C21" t="n">
+        <v>0.969101648865052</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -2543,15 +2458,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="C22">
-        <v>0.93344387136323104</v>
+      <c r="C22" t="n">
+        <v>0.933443871363231</v>
       </c>
       <c r="D22" t="s">
         <v>132</v>
@@ -2560,15 +2475,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
-        <v>0.96062456722699896</v>
+      <c r="C23" t="n">
+        <v>0.960624567226999</v>
       </c>
       <c r="D23" t="s">
         <v>132</v>
@@ -2577,15 +2492,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="C24">
-        <v>0.95082106335652306</v>
+      <c r="C24" t="n">
+        <v>0.950821063356523</v>
       </c>
       <c r="D24" t="s">
         <v>132</v>
@@ -2594,15 +2509,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="C25">
-        <v>0.94501397214762795</v>
+      <c r="C25" t="n">
+        <v>0.945013972147628</v>
       </c>
       <c r="D25" t="s">
         <v>132</v>
@@ -2611,15 +2526,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C26">
-        <v>0.93182648047100802</v>
+      <c r="C26" t="n">
+        <v>0.931826480471008</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
@@ -2628,15 +2543,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27">
       <c r="A27" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="C27">
-        <v>0.94017640094772403</v>
+      <c r="C27" t="n">
+        <v>0.940176400947724</v>
       </c>
       <c r="D27" t="s">
         <v>132</v>
@@ -2645,15 +2560,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="C28">
-        <v>0.93213737473880298</v>
+      <c r="C28" t="n">
+        <v>0.932137374738803</v>
       </c>
       <c r="D28" t="s">
         <v>132</v>
@@ -2662,14 +2577,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.931908284813456</v>
       </c>
       <c r="D29" t="s">
@@ -2679,15 +2594,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30">
       <c r="A30" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>102</v>
       </c>
-      <c r="C30">
-        <v>0.92427908089206401</v>
+      <c r="C30" t="n">
+        <v>0.924279080892064</v>
       </c>
       <c r="D30" t="s">
         <v>132</v>
@@ -2696,15 +2611,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31">
       <c r="A31" t="s">
         <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="C31">
-        <v>0.95798239757194104</v>
+      <c r="C31" t="n">
+        <v>0.957982397571941</v>
       </c>
       <c r="D31" t="s">
         <v>132</v>
@@ -2713,15 +2628,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32">
       <c r="A32" t="s">
         <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32">
-        <v>0.94564468110829203</v>
+      <c r="C32" t="n">
+        <v>0.945644681108292</v>
       </c>
       <c r="D32" t="s">
         <v>132</v>
@@ -2730,15 +2645,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33">
       <c r="A33" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="C33">
-        <v>0.94756509325421101</v>
+      <c r="C33" t="n">
+        <v>0.947565093254211</v>
       </c>
       <c r="D33" t="s">
         <v>132</v>
@@ -2747,15 +2662,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="C34">
-        <v>0.96035056957370402</v>
+      <c r="C34" t="n">
+        <v>0.960350569573704</v>
       </c>
       <c r="D34" t="s">
         <v>132</v>
@@ -2764,15 +2679,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="C35">
-        <v>0.95177147925460304</v>
+      <c r="C35" t="n">
+        <v>0.951771479254603</v>
       </c>
       <c r="D35" t="s">
         <v>132</v>
@@ -2781,15 +2696,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36">
       <c r="A36" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="C36">
-        <v>0.95187136300048503</v>
+      <c r="C36" t="n">
+        <v>0.951871363000485</v>
       </c>
       <c r="D36" t="s">
         <v>132</v>
@@ -2800,21 +2715,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2831,15 +2744,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2">
-        <v>0.92424817174664897</v>
+      <c r="C2" t="n">
+        <v>0.924248171746649</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
@@ -2848,15 +2761,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
-        <v>0.92586645775868903</v>
+      <c r="C3" t="n">
+        <v>0.925866457758689</v>
       </c>
       <c r="D3" t="s">
         <v>132</v>
@@ -2865,14 +2778,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.924710986785796</v>
       </c>
       <c r="D4" t="s">
@@ -2882,15 +2795,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="C5">
-        <v>0.92795087762443096</v>
+      <c r="C5" t="n">
+        <v>0.927950877624431</v>
       </c>
       <c r="D5" t="s">
         <v>132</v>
@@ -2899,15 +2812,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6">
-        <v>0.92696613664601601</v>
+      <c r="C6" t="n">
+        <v>0.926966136646016</v>
       </c>
       <c r="D6" t="s">
         <v>132</v>
@@ -2916,15 +2829,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="C7">
-        <v>0.92656035498954503</v>
+      <c r="C7" t="n">
+        <v>0.926560354989545</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -2933,15 +2846,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8">
-        <v>0.92427908089206401</v>
+      <c r="C8" t="n">
+        <v>0.924279080892064</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>
@@ -2952,19 +2865,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -2972,7 +2885,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2980,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2988,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +2909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3004,7 +2917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3012,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +2933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3028,7 +2941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3036,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3044,7 +2957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -3052,7 +2965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3060,7 +2973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3068,7 +2981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3076,7 +2989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3084,7 +2997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3092,7 +3005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3100,7 +3013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3116,1788 +3029,446 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20">
+      <c r="A20"/>
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21">
+      <c r="A21"/>
       <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22">
+      <c r="A22"/>
       <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23">
+      <c r="A23"/>
       <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24">
+      <c r="A24"/>
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25">
+      <c r="A25"/>
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26">
+      <c r="A26"/>
       <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27">
+      <c r="A27"/>
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28">
+      <c r="A28"/>
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29">
+      <c r="A29"/>
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30">
+      <c r="A30"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31">
+      <c r="A31"/>
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="4" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="2" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="4" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" s="4" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" s="2" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B24" s="1" t="s">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B25" s="1" t="s">
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B26" s="1" t="s">
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B27" s="1" t="s">
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B28" s="1" t="s">
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B29" s="1" t="s">
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B30" s="1" t="s">
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B31" s="1" t="s">
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B32" s="1" t="s">
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B33" s="1" t="s">
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B34" s="1" t="s">
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B35" s="1" t="s">
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B36" s="1" t="s">
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B37" s="1" t="s">
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B38" s="1" t="s">
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B39" s="1" t="s">
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B40" s="1" t="s">
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B41" s="1" t="s">
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B42" s="1" t="s">
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B43" s="1" t="s">
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B44" s="1" t="s">
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B45" s="1" t="s">
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B46" s="1" t="s">
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B47" s="1" t="s">
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B48" s="1" t="s">
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B49" s="1" t="s">
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B50" s="1" t="s">
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B51" s="1" t="s">
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0EDA1F-75F3-4EB7-8EED-37BEBC48809A}">
-  <dimension ref="A1:N49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>47</v>
-      </c>
-      <c r="K43" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>